--- a/doc/actions.xlsx
+++ b/doc/actions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangq\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12818\workspace\students\hongkai\react\mice\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92060A85-8DB1-4DA0-B1A4-540AABAD7E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033CC2F0-C75B-4F8C-9092-4D72EDF08AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="1140" windowWidth="15375" windowHeight="8655" xr2:uid="{70B54016-3A25-477D-B713-1E677BCC44E3}"/>
+    <workbookView xWindow="-26790" yWindow="1560" windowWidth="24585" windowHeight="14475" xr2:uid="{70B54016-3A25-477D-B713-1E677BCC44E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wean breeding pair</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -141,24 +137,102 @@
   <si>
     <t>breeding</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weanb</t>
+  </si>
+  <si>
+    <t>actionID</t>
+  </si>
+  <si>
+    <t>a01</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>mice</t>
+  </si>
+  <si>
+    <t>7239, 7240,7241,7242</t>
+  </si>
+  <si>
+    <t>From Cage</t>
+  </si>
+  <si>
+    <t>TEB2</t>
+  </si>
+  <si>
+    <t>to Cage</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>wean</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>user A102</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>5xt13(M)</t>
+  </si>
+  <si>
+    <t>5xt12(F)</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>LL</t>
+  </si>
+  <si>
+    <t>W23</t>
+  </si>
+  <si>
+    <t>W3</t>
+  </si>
+  <si>
+    <t>together</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>W24</t>
+  </si>
+  <si>
+    <t>design a report for all of the possible actions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -167,16 +241,30 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -193,7 +281,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -201,6 +289,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -517,251 +614,442 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F109A094-7CCE-46D7-B377-E5F06110E46B}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="15.75">
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="15.75">
       <c r="A1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44751</v>
+      </c>
+      <c r="C2">
+        <v>7239</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1">
+        <v>44751</v>
+      </c>
+      <c r="C3">
+        <v>7240</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="4">
+        <v>44751</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44751</v>
+      </c>
+      <c r="C4">
+        <v>7241</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="4">
+        <v>44748</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44751</v>
+      </c>
+      <c r="C5">
+        <v>7242</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="4">
+        <v>44751</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="B7" s="1">
+        <v>44751</v>
+      </c>
+      <c r="C7">
+        <v>5242</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="4">
+        <v>44748</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="B8" s="1">
+        <v>44751</v>
+      </c>
+      <c r="C8">
+        <v>5247</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="4">
+        <v>44748</v>
+      </c>
+      <c r="K8">
+        <v>5425</v>
+      </c>
+      <c r="L8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="B9" s="1">
+        <v>44751</v>
+      </c>
+      <c r="C9">
+        <v>5458</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="4">
+        <v>44748</v>
+      </c>
+      <c r="K9">
+        <v>5426</v>
+      </c>
+      <c r="L9" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="B10" s="1">
+        <v>44751</v>
+      </c>
+      <c r="C10">
+        <v>5459</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="B11" s="1">
+        <v>44751</v>
+      </c>
+      <c r="C11">
+        <v>5460</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="B12" s="1">
+        <v>44748</v>
+      </c>
+      <c r="C12">
+        <v>6427</v>
+      </c>
+      <c r="G12" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>44751</v>
-      </c>
-      <c r="B2">
-        <v>7239</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="B13" s="1">
+        <v>44751</v>
+      </c>
+      <c r="C13">
+        <v>5425</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>44751</v>
-      </c>
-      <c r="B3">
-        <v>5242</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>44751</v>
-      </c>
-      <c r="B4">
-        <v>5247</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>44751</v>
-      </c>
-      <c r="B5">
-        <v>5458</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>44751</v>
-      </c>
-      <c r="B6">
-        <v>5459</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>44751</v>
-      </c>
-      <c r="B7">
-        <v>5460</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>44748</v>
-      </c>
-      <c r="B8">
-        <v>6427</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="B14" s="1">
+        <v>44751</v>
+      </c>
+      <c r="C14">
+        <v>5426</v>
+      </c>
+      <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="B15" s="1">
+        <v>44751</v>
+      </c>
+      <c r="C15">
+        <v>7426</v>
+      </c>
+      <c r="F15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>44751</v>
-      </c>
-      <c r="B9">
-        <v>5425</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>44751</v>
-      </c>
-      <c r="B10">
-        <v>5426</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
+    <row r="16" spans="1:16">
+      <c r="B16" s="1">
+        <v>44751</v>
+      </c>
+      <c r="C16">
+        <v>5424</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
         <v>15</v>
       </c>
-      <c r="G10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>44751</v>
-      </c>
-      <c r="B11">
-        <v>7426</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>44751</v>
-      </c>
-      <c r="B12">
-        <v>5424</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="H16" t="s">
         <v>23</v>
       </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s">
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="1">
+        <v>44751</v>
+      </c>
+      <c r="C17">
+        <v>5427</v>
+      </c>
+      <c r="F17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>44751</v>
-      </c>
-      <c r="B13">
-        <v>5427</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="H17" t="s">
         <v>25</v>
       </c>
-      <c r="G13" t="s">
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="1">
+        <v>44751</v>
+      </c>
+      <c r="C18">
+        <v>5428</v>
+      </c>
+      <c r="E18" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
-        <v>44751</v>
-      </c>
-      <c r="B14">
-        <v>5428</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="F18" t="s">
         <v>27</v>
       </c>
-      <c r="E14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" t="s">
-        <v>28</v>
+      <c r="H18" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
